--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciki1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C5FAA-C9E7-334B-B1D5-885C3659197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912B7B6-8F7F-4AA4-8D68-BA7C617DB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="4160" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>train_base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,90 @@
   </si>
   <si>
     <t>31.22/33.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.02/91.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.52/91.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.58/73.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.05/76.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.23/82.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.82/84.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train(_ P8d P8r l _)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train(_ P8d P8r _ _)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.74/83.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.19/92.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.06/82.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.79/68.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.08/84.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.36/78.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train(_ P8d P8r P4d P4r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.64/90.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.34/80.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.96/79.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.6/67.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.26/74.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.95/83.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,18 +544,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.83203125" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="15.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -537,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -558,6 +643,75 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
